--- a/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
+++ b/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
@@ -710,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,14 +729,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1060,13 +1054,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="6.58407079646018" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.6106194690265" style="2" customWidth="1"/>
@@ -1110,22 +1104,22 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1133,35 +1127,24 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:7">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
+++ b/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
@@ -31,7 +31,7 @@
     <t>method</t>
   </si>
   <si>
-    <t>payload</t>
+    <t>data</t>
   </si>
   <si>
     <t>expected_result</t>
@@ -55,7 +55,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>{'email': "695418206@qq.com",'from': "web",'product': "master-online",'pw': "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
+    <t>{"email": "2695418206@qq.com","from": "web","product": "master-online","pw": "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
   </si>
   <si>
     <t>success</t>
@@ -64,10 +64,10 @@
     <t>login_nameF</t>
   </si>
   <si>
-    <t>{'email': "2695418206@qq.com",'from': "web",'product': "master-online",'pw': "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
-  </si>
-  <si>
-    <t>fault</t>
+    <t>{"email": "695418206@qq.com","from": "web","product": "master-online","pw": "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
+  </si>
+  <si>
+    <t>error</t>
   </si>
 </sst>
 </file>
@@ -80,7 +80,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,10 +110,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF6A8759"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -139,14 +141,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,21 +586,24 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -616,31 +613,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -649,16 +643,16 @@
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,7 +723,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1057,7 +1051,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1147,6 +1141,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="https://userapi.edrawsoft.cn/api/user/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://userapi.edrawsoft.cn/api/user/login"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
+++ b/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
@@ -1,262 +1,198 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20520" windowHeight="9840"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20520" windowHeight="9840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
-  <si>
-    <t>case_id</t>
-  </si>
-  <si>
-    <t>model_name</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>case_title</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>expected_result</t>
-  </si>
-  <si>
-    <t>actual_result</t>
-  </si>
-  <si>
-    <t>test_result</t>
-  </si>
-  <si>
-    <t>登录</t>
-  </si>
-  <si>
-    <t>https://userapi.edrawsoft.cn/api/user/login</t>
-  </si>
-  <si>
-    <t>login_suss</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>{"email": "2695418206@qq.com","from": "web","product": "master-online","pw": "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>login_nameF</t>
-  </si>
-  <si>
-    <t>{"email": "695418206@qq.com","from": "web","product": "master-online","pw": "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="23">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -556,177 +492,175 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -782,11 +716,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1046,106 +1043,172 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9.026548672566371" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="6.58407079646018" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6106194690265" style="2" customWidth="1"/>
-    <col min="3" max="4" width="26.283185840708" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.5486725663717" style="2" customWidth="1"/>
-    <col min="6" max="6" width="50.3805309734513" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.4424778761062" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.02654867256637" style="2"/>
+    <col width="6.58407079646018" customWidth="1" style="2" min="1" max="1"/>
+    <col width="15.6106194690265" customWidth="1" style="2" min="2" max="2"/>
+    <col width="26.283185840708" customWidth="1" style="2" min="3" max="4"/>
+    <col width="11.5486725663717" customWidth="1" style="2" min="5" max="5"/>
+    <col width="50.3805309734513" customWidth="1" style="2" min="6" max="6"/>
+    <col width="18.4424778761062" customWidth="1" style="2" min="7" max="7"/>
+    <col width="14.0796460176991" customWidth="1" style="2" min="8" max="8"/>
+    <col width="11.4867256637168" customWidth="1" style="2" min="9" max="9"/>
+    <col width="9.026548672566371" customWidth="1" style="2" min="10" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="22.5" customFormat="1" customHeight="1" s="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>case_id</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>model_name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>case_title</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="F1" s="4" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>expected_result</t>
+        </is>
+      </c>
+      <c r="H1" s="4" t="inlineStr">
+        <is>
+          <t>actual_result</t>
+        </is>
+      </c>
+      <c r="I1" s="4" t="inlineStr">
+        <is>
+          <t>test_result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="39" customHeight="1" s="2">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>https://userapi.edrawsoft.cn/api/user/login</t>
+        </is>
+      </c>
+      <c r="D2" s="5" t="inlineStr">
+        <is>
+          <t>login_suss</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F2" s="7" t="inlineStr">
+        <is>
+          <t>{"email": "2695418206@qq.com","from": "web","product": "master-online","pw": "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
+        </is>
+      </c>
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" s="2">
+      <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" ht="39" customHeight="1" spans="1:7">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="39" customHeight="1" spans="1:7">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>17</v>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>登录</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>https://userapi.edrawsoft.cn/api/user/login</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>login_nameF</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>post</t>
+        </is>
+      </c>
+      <c r="F3" s="7" t="inlineStr">
+        <is>
+          <t>{"email": "695418206@qq.com","from": "web","product": "master-online","pw": "f2d8ddfc169a0ee6f8b0ecd924b1d300"}</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>error</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://userapi.edrawsoft.cn/api/user/login"/>
-    <hyperlink ref="C3" r:id="rId1" display="https://userapi.edrawsoft.cn/api/user/login"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" display="https://userapi.edrawsoft.cn/api/user/login" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" display="https://userapi.edrawsoft.cn/api/user/login" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
+++ b/ApiTest_mindmaster/data/openpyxl_mindmaster2.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="20520" windowHeight="9840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="19672" windowHeight="9735" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="login" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -56,45 +56,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <color rgb="FF800080"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -138,6 +102,21 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
       <color rgb="FF3F3F3F"/>
@@ -185,7 +164,28 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -199,49 +199,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,121 +337,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,21 +390,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -437,6 +422,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,148 +495,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -657,7 +657,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="6">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -666,52 +666,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1050,8 +1050,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.026548672566371" defaultRowHeight="13.5" outlineLevelRow="2"/>
